--- a/data/trans_orig/Predimed-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Habitat-trans_orig.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,55</t>
+          <t>6,87</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 8,08</t>
+          <t>6,7; 7,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,81</t>
+          <t>6,69; 6,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,81</t>
+          <t>6,76; 7,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>6,31</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 6,9</t>
+          <t>6,1; 6,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 6,8</t>
+          <t>6,1; 6,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,53; 6,8</t>
+          <t>6,16; 6,55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>6,61</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 6,36</t>
+          <t>6,02; 6,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 6,31</t>
+          <t>6,4; 7,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 6,3</t>
+          <t>6,32; 7,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>6,42</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 6,4</t>
+          <t>6,21; 6,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 7,13</t>
+          <t>6,33; 6,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 6,78</t>
+          <t>6,31; 6,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>6,51</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 6,47</t>
+          <t>6,33; 6,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,31; 6,58</t>
+          <t>6,45; 6,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,27; 6,48</t>
+          <t>6,42; 6,67</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,34</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,47</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>6,25; 6,44</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,38; 6,65</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,35; 6,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/Predimed-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Habitat-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 7,07</t>
+          <t>6,71; 7,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 6,98</t>
+          <t>6,7; 7,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 7,0</t>
+          <t>6,76; 6,98</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 6,67</t>
+          <t>6,11; 6,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 6,38</t>
+          <t>6,11; 6,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 6,55</t>
+          <t>6,17; 6,54</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 6,46</t>
+          <t>6,05; 6,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 7,44</t>
+          <t>6,38; 7,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 7,14</t>
+          <t>6,34; 7,23</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 6,53</t>
+          <t>6,22; 6,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 6,61</t>
+          <t>6,32; 6,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 6,57</t>
+          <t>6,34; 6,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,45; 6,9</t>
+          <t>6,45; 6,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">

--- a/data/trans_orig/Predimed-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Habitat-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Escala adherencia a la dieta mediterránea a través del Predimed</t>
+          <t>Puntuación media de la escala de adherencia a la dieta mediterránea (Predimed)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
